--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/otp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB71B-339A-0640-8948-D1CA482813D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030520-5E0D-464D-AA8E-6112A6204D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Promotion Vouchers" sheetId="2" r:id="rId1"/>
+    <sheet name="My Vouchers" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,27 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+  <si>
+    <t>testCase</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","voucherTypeName":"cashback","filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{"id":11,"name":"Diskon 25% (max Rp 25.000) buat beli pulsa","voucherTypeName":"discount","filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1500508800000}</t>
+  </si>
+  <si>
+    <t>Undefined user id</t>
+  </si>
+  <si>
+    <t>Empty string user id</t>
+  </si>
+  <si>
+    <t>Undefined page</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Empty string page</t>
+  </si>
+  <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>16E8134F893B0407FF9DBA58CB8EC832</t>
+  </si>
+  <si>
+    <t>"status":401,"error":"Unauthorized"</t>
+  </si>
+  <si>
+    <t>Undefined session id</t>
+  </si>
+  <si>
+    <t>Empty string session id</t>
+  </si>
+  <si>
+    <t>Valid session id and page</t>
+  </si>
+  <si>
+    <t>Valid user id and page (no voucher)</t>
+  </si>
+  <si>
+    <t>you don’t have any vouchers</t>
+  </si>
+  <si>
+    <t>Valid user id and page (below 10 vouchers)</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","voucherTypeName":"cashback","discount":0,"maxDeduction":0,"value":1000,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000}</t>
+  </si>
+  <si>
+    <t>Valid user id and page (more than 10 vouchers)</t>
+  </si>
+  <si>
+    <t>{"id":11,"name":"Diskon 25% (max Rp 25.000) buat beli pulsa","voucherTypeName":"discount","discount":25,"maxDeduction":25000,"value":0,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1500508800000}</t>
+  </si>
+  <si>
+    <t>"status":404,"error":"Not Found"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,25 +169,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,64 +500,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="225.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9999</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9DB414-D404-9B43-88E0-9E486045AF39}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="225.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9999</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030520-5E0D-464D-AA8E-6112A6204D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A2460-7BFB-944D-8A88-07D5D0289F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="My Vouchers" sheetId="3" r:id="rId2"/>
+    <sheet name="Voucher Details" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>testCase</t>
   </si>
@@ -60,6 +61,9 @@
     <t>Undefined user id</t>
   </si>
   <si>
+    <t>9999</t>
+  </si>
+  <si>
     <t>Empty string user id</t>
   </si>
   <si>
@@ -109,13 +113,37 @@
   </si>
   <si>
     <t>"status":404,"error":"Not Found"</t>
+  </si>
+  <si>
+    <t>voucher id</t>
+  </si>
+  <si>
+    <t>Valid ID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Undefined voucher ID</t>
+  </si>
+  <si>
+    <t>Empty string voucher ID</t>
+  </si>
+  <si>
+    <t>{"id":2,"name":"Cashback Rp 1.500 buat beli pulsa","discount":0,"voucherTypeName":"cashback","minPurchase":15000,"maxDeduction":0,"value":1500,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1216512000000,"active":true}</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","discount":0,"voucherTypeName":"cashback","minPurchase":10000,"maxDeduction":0,"value":1000,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000,"active":true}</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"voucher not found"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +153,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -186,6 +221,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +560,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -530,7 +587,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -544,7 +601,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -558,33 +615,33 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -593,19 +650,19 @@
         <v>9999</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -617,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9DB414-D404-9B43-88E0-9E486045AF39}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -644,7 +701,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -653,12 +710,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -667,12 +724,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -681,12 +738,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -695,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,30 +760,30 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -735,19 +792,134 @@
         <v>9999</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261EE52-DDC4-DE48-8110-151674ED6ABC}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A2460-7BFB-944D-8A88-07D5D0289F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A52EB-DA05-0146-B228-0B8FFF9A3226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Undefined page</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>Empty string page</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>16E8134F893B0407FF9DBA58CB8EC832</t>
   </si>
   <si>
-    <t>"status":401,"error":"Unauthorized"</t>
-  </si>
-  <si>
     <t>Undefined session id</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>"code":404,"message":"voucher not found"</t>
+  </si>
+  <si>
+    <t>"code":200,"message":"success","data":[]</t>
+  </si>
+  <si>
+    <t>"code":401,"message":"Unauthorized"</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,19 +650,19 @@
         <v>9999</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +675,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -710,12 +710,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -724,12 +724,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -738,12 +738,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,19 +792,19 @@
         <v>9999</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261EE52-DDC4-DE48-8110-151674ED6ABC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -844,21 +844,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>3</v>
@@ -867,38 +867,38 @@
         <v>5</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A52EB-DA05-0146-B228-0B8FFF9A3226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED87384-1C67-7F4A-AF4A-58872554B575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261EE52-DDC4-DE48-8110-151674ED6ABC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED87384-1C67-7F4A-AF4A-58872554B575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD031D-E8C9-8A42-9A92-17DDDAD1362E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="My Vouchers" sheetId="3" r:id="rId2"/>
     <sheet name="Voucher Details" sheetId="4" r:id="rId3"/>
+    <sheet name="Recommendation Vouchers" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>testCase</t>
   </si>
@@ -137,6 +138,30 @@
   </si>
   <si>
     <t>"code":401,"message":"Unauthorized"</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>Valid user id (have no vouchers)</t>
+  </si>
+  <si>
+    <t>Valid user id (below minimum purchase)</t>
+  </si>
+  <si>
+    <t>Valid user id (meets minimum purchase)</t>
+  </si>
+  <si>
+    <t>Undefined transaction id</t>
+  </si>
+  <si>
+    <t>Empty string transaction id</t>
+  </si>
+  <si>
+    <t>Another user's transaction</t>
+  </si>
+  <si>
+    <t>"code":500,"message":"transaction not found or expired"</t>
   </si>
 </sst>
 </file>
@@ -559,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,7 +700,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261EE52-DDC4-DE48-8110-151674ED6ABC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,4 +950,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116B0B9-6A8F-DB41-B41B-6CEB26B9F363}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9999</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/testCases/voucher/VouchersTestData.xlsx
+++ b/src/test/java/testCases/voucher/VouchersTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD031D-E8C9-8A42-9A92-17DDDAD1362E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE21BB-B2B9-2D4C-BE74-2EC0C4CD8AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>testCase</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>"code":500,"message":"transaction not found or expired"</t>
+  </si>
+  <si>
+    <t>Undefined session  id</t>
+  </si>
+  <si>
+    <t>"id":4,"name":"Cashback Rp 2.500 buat beli pulsa","voucherTypeName":"cashback","discount":0,"maxDeduction":0,"value":2500,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1279584000000</t>
+  </si>
+  <si>
+    <t>"status":404,"error":"Not Found","message":"","path":"/api/vouchers/recommendation/"</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -842,7 +854,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,15 +968,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116B0B9-6A8F-DB41-B41B-6CEB26B9F363}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="252.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +1004,9 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1003,7 +1018,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1015,29 +1032,35 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1061,7 +1084,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
